--- a/research/thesis/figures/performance/fakebook-charts.xlsx
+++ b/research/thesis/figures/performance/fakebook-charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="24800" windowHeight="8440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24880" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="graph-plain" sheetId="2" r:id="rId1"/>
@@ -118,8 +118,170 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -252,6 +414,87 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -294,11 +537,1205 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-plain'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-plain'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-plain'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.81632653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.918367346939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.1836734693877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.265306122449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-plain'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response Piped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-plain'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-plain'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56.10204082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.51020408163265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.530612244898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.7959183673469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-plain'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-plain'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-plain'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>102.6122449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.4489795918367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.4285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.8979591836735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-plain'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time Piped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-plain'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-plain'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>94.816326535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172.3469387755102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192.8163265306123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.8979591836735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.3673469387755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2097777480"/>
+        <c:axId val="2097778520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2097777480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2097778520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2097778520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2097777480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-database'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-database'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-database'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>149.061224489796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408.836734693878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2583.61224489796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6172.26530612245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12139.69387755102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-database'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response Piped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-database'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-database'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>74.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.8979591836735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>939.6530612244898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2203.897959183673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4530.34693877551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-database'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-database'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-database'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>166.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448.4081632653061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2621.387755102041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6214.673469387755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12217.28571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-database'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time Piped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-database'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-database'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>144.0408163265306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>618.7142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2649.897959183673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6244.551020408162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12878.77551020408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2102134312"/>
+        <c:axId val="2102135720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2102134312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102135720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2102135720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102134312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-webservice'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-webservice'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-webservice'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5144.959184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5053.040816326531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4872.367346938776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4791.755102040816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4742.285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-webservice'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response Piped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-webservice'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-webservice'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>795.2244898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>767.5510204081633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>718.8775510204082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750.2857142857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>741.673469387755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-webservice'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-webservice'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-webservice'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5164.77551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5110.591836734694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4912.204081632653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4848.040816326531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4827.040816326531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph-webservice'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time Piped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph-webservice'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Siege 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Siege 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Siege 25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Siege 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Siege 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-webservice'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5103.959184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5114.69183673469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5177.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4790.08163265306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4754.469387755102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2103653144"/>
+        <c:axId val="2103656232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2103653144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103656232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2103656232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103653144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -742,6 +2179,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -755,7 +2193,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -871,6 +2309,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -883,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -947,7 +2386,7 @@
         <v>5110.591836734694</v>
       </c>
       <c r="E3" s="1">
-        <v>5110.591836734694</v>
+        <v>5114.6918367346898</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1016,6 +2455,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/research/thesis/figures/performance/fakebook-charts.xlsx
+++ b/research/thesis/figures/performance/fakebook-charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24880" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="-640" yWindow="20" windowWidth="24800" windowHeight="15620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="graph-plain" sheetId="2" r:id="rId1"/>
@@ -660,6 +660,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -723,6 +738,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -786,6 +816,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -849,6 +894,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -907,11 +967,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2097777480"/>
-        <c:axId val="2097778520"/>
+        <c:axId val="2039603352"/>
+        <c:axId val="2039609128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2097777480"/>
+        <c:axId val="2039603352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097778520"/>
+        <c:crossAx val="2039609128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -928,7 +988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097778520"/>
+        <c:axId val="2039609128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,15 +999,34 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097777480"/>
+        <c:crossAx val="2039603352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0368786974698286"/>
+          <c:y val="0.0154440154440154"/>
+          <c:w val="0.940385116857446"/>
+          <c:h val="0.083171647462986"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -996,6 +1075,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1059,6 +1153,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1122,6 +1231,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1185,6 +1309,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1243,11 +1382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2102134312"/>
-        <c:axId val="2102135720"/>
+        <c:axId val="2077932824"/>
+        <c:axId val="2077935944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2102134312"/>
+        <c:axId val="2077932824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102135720"/>
+        <c:crossAx val="2077935944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1264,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102135720"/>
+        <c:axId val="2077935944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,15 +1414,34 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102134312"/>
+        <c:crossAx val="2077932824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0463678458103185"/>
+          <c:y val="0.0155642023346303"/>
+          <c:w val="0.933532871077682"/>
+          <c:h val="0.0820346824351236"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1332,6 +1490,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1395,6 +1568,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1458,6 +1646,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1521,6 +1724,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1579,11 +1797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2103653144"/>
-        <c:axId val="2103656232"/>
+        <c:axId val="2077980520"/>
+        <c:axId val="2077983640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2103653144"/>
+        <c:axId val="2077980520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103656232"/>
+        <c:crossAx val="2077983640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103656232"/>
+        <c:axId val="2077983640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,15 +1829,34 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103653144"/>
+        <c:crossAx val="2077980520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0412044072424397"/>
+          <c:y val="0.0154738878143133"/>
+          <c:w val="0.944444567021066"/>
+          <c:h val="0.0813982850789686"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1638,15 +1875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2062,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2178,7 +2415,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2308,7 +2544,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2322,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2454,7 +2689,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
